--- a/code/SQL/data/mb_user_role_permission.xlsx
+++ b/code/SQL/data/mb_user_role_permission.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -39,19 +39,16 @@
     <t>2023-03-22 13:05:29</t>
   </si>
   <si>
-    <t>2023-03-22 13:05:43</t>
-  </si>
-  <si>
-    <t>2023-03-22 13:05:44</t>
-  </si>
-  <si>
-    <t>2023-03-22 13:06:01</t>
-  </si>
-  <si>
-    <t>2023-03-22 13:06:02</t>
-  </si>
-  <si>
-    <t>2023-03-22 13:06:03</t>
+    <t>2023-03-22 13:47:07</t>
+  </si>
+  <si>
+    <t>2023-03-22 15:12:31</t>
+  </si>
+  <si>
+    <t>2023-03-22 19:44:56</t>
+  </si>
+  <si>
+    <t>2023-03-22 20:01:55</t>
   </si>
   <si>
     <t>SELECT t.* FROM mb_user.role_permission t</t>
@@ -162,13 +159,13 @@
     </row>
     <row>
       <c t="n">
-        <v>7</v>
-      </c>
-      <c t="n">
-        <v>2</v>
-      </c>
-      <c t="n">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c t="n">
+        <v>1</v>
+      </c>
+      <c t="n">
+        <v>11</v>
       </c>
       <c t="s">
         <v>8</v>
@@ -176,21 +173,49 @@
     </row>
     <row>
       <c t="n">
+        <v>14</v>
+      </c>
+      <c t="n">
+        <v>1</v>
+      </c>
+      <c t="n">
+        <v>12</v>
+      </c>
+      <c t="s">
         <v>8</v>
       </c>
-      <c t="n">
-        <v>2</v>
-      </c>
-      <c t="n">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>9</v>
+    </row>
+    <row>
+      <c t="n">
+        <v>25</v>
+      </c>
+      <c t="n">
+        <v>3</v>
+      </c>
+      <c t="n">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>26</v>
+      </c>
+      <c t="n">
+        <v>3</v>
+      </c>
+      <c t="n">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>27</v>
       </c>
       <c t="n">
         <v>3</v>
@@ -199,49 +224,161 @@
         <v>5</v>
       </c>
       <c t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>28</v>
+      </c>
+      <c t="n">
+        <v>3</v>
+      </c>
+      <c t="n">
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>29</v>
+      </c>
+      <c t="n">
+        <v>3</v>
+      </c>
+      <c t="n">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>30</v>
+      </c>
+      <c t="n">
+        <v>3</v>
+      </c>
+      <c t="n">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>31</v>
+      </c>
+      <c t="n">
+        <v>3</v>
+      </c>
+      <c t="n">
+        <v>11</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>32</v>
+      </c>
+      <c t="n">
+        <v>3</v>
+      </c>
+      <c t="n">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>35</v>
+      </c>
+      <c t="n">
+        <v>1</v>
+      </c>
+      <c t="n">
+        <v>13</v>
+      </c>
+      <c t="s">
         <v>10</v>
       </c>
     </row>
     <row>
       <c t="n">
-        <v>10</v>
-      </c>
-      <c t="n">
-        <v>3</v>
-      </c>
-      <c t="n">
-        <v>6</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>11</v>
-      </c>
-      <c t="n">
-        <v>3</v>
-      </c>
-      <c t="n">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
+        <v>40</v>
+      </c>
+      <c t="n">
+        <v>2</v>
+      </c>
+      <c t="n">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>41</v>
+      </c>
+      <c t="n">
+        <v>2</v>
+      </c>
+      <c t="n">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>42</v>
+      </c>
+      <c t="n">
+        <v>2</v>
+      </c>
+      <c t="n">
+        <v>13</v>
+      </c>
+      <c t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>43</v>
+      </c>
+      <c t="n">
+        <v>2</v>
+      </c>
+      <c t="n">
+        <v>11</v>
+      </c>
+      <c t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>44</v>
+      </c>
+      <c t="n">
+        <v>2</v>
+      </c>
       <c t="n">
         <v>12</v>
       </c>
-      <c t="n">
-        <v>3</v>
-      </c>
-      <c t="n">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>12</v>
+      <c t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -253,7 +390,7 @@
   <sheetData>
     <row>
       <c t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
